--- a/Hardware/uEVB-BOM-Z3.xlsx
+++ b/Hardware/uEVB-BOM-Z3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/NiteFury-and-LiteFury/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4298DA4-1FBD-4E1C-963E-67B25F5E5348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE19DEE-EF26-A34C-959F-6AC5A5B58160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2535" windowWidth="35385" windowHeight="16755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-9160" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uEVB-rawbom" sheetId="1" r:id="rId1"/>
@@ -1144,11 +1144,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1208,9 +1206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1248,7 +1246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1354,7 +1352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1496,7 +1494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1506,20 +1504,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -1685,7 +1684,7 @@
       <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>148</v>
       </c>
       <c r="E7" t="s">
@@ -1701,7 +1700,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1893,7 +1892,7 @@
       <c r="C15" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>171</v>
       </c>
       <c r="E15" t="s">
@@ -1906,7 +1905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2029,21 +2028,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2053,7 +2052,7 @@
       <c r="C23" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>173</v>
       </c>
       <c r="E23" t="s">
@@ -2069,7 +2068,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2079,7 +2078,7 @@
       <c r="C24" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>176</v>
       </c>
       <c r="E24">
@@ -2095,7 +2094,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>197</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -2443,44 +2442,44 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -2577,27 +2576,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>135</v>
       </c>
